--- a/考核结果/考核.xlsx
+++ b/考核结果/考核.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\文档\算法\tutorials\考核结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE32A02-BCE1-4D16-9B41-CEC4420F45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A08B9-9723-478F-93FF-D185474BAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42410" yWindow="3550" windowWidth="25640" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="25636" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>任务1配置环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>戴东航</t>
+  </si>
+  <si>
+    <t>万鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任诗晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务2 ros2节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -392,97 +404,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/考核结果/考核.xlsx
+++ b/考核结果/考核.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\文档\算法\tutorials\考核结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A08B9-9723-478F-93FF-D185474BAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B249CAF-6D9D-4245-A0A1-2D31A616AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="25636" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="17363" windowHeight="10163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -430,6 +430,9 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -441,6 +444,9 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -463,6 +469,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -499,6 +508,9 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -524,6 +536,9 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -535,6 +550,9 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -546,6 +564,9 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -556,6 +577,9 @@
       </c>
       <c r="D13" t="s">
         <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/考核结果/考核.xlsx
+++ b/考核结果/考核.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\文档\算法\tutorials\考核结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B249CAF-6D9D-4245-A0A1-2D31A616AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A967F8-2834-44D1-B653-7CA81D0B3E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="17363" windowHeight="10163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="17363" windowHeight="10163" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>任务1配置环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,50 @@
   </si>
   <si>
     <t>任务2 ros2节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚了一天打数模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在容器里面该参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用git做(存疑只有一个commint)但是有gitignore,没有出现建图的rviz,没看见改参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在容器改参数?或者挂载改参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在容器里面改原生功能包参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大二最快,功能完成,在容器非挂载目录改参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本地塞屎+copy 应该也是原生功能包改参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个不知名的rosdep,  原生功能包改参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">构建了一个镜像,装了fast lio2 依赖,可以播放功能包,没有用docker compose 来管理容器,没写一个luanch来启动slam </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +144,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -139,6 +192,198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109642</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37C0D57-18C6-BCC7-6035-785E502334F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3890520" y="637920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37C0D57-18C6-BCC7-6035-785E502334F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3884400" y="631800"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147802</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="墨迹 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A58F59F-8E05-2A77-8AF5-5517AECC8AAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3647880" y="676080"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="墨迹 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A58F59F-8E05-2A77-8AF5-5517AECC8AAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3641760" y="669960"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-10T13:58:55.184"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-10T13:58:55.578"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="219.92">1 1 24575</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -448,15 +693,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -497,6 +745,9 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -580,6 +831,110 @@
       </c>
       <c r="E13">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F44B996-E399-46B8-960B-67D5ECD6048D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="35.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
